--- a/Team7_Dollardays/testdata/Team2Data_AccontPage.xlsx
+++ b/Team7_Dollardays/testdata/Team2Data_AccontPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FD60F628-9A58-49F4-9994-028E0DC5B878}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D604388D-DEE3-4DB4-A22B-92C4EB03A82D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="14448" windowHeight="11064" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19440" windowHeight="11064" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaxExempt" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Default_PM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I7"/>
+  <oleSize ref="A1:G21"/>
 </workbook>
 </file>
 
@@ -252,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +358,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -425,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,6 +492,9 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -753,7 +765,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2"/>
@@ -30138,7 +30150,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
